--- a/InvoiceGenerator.TS/Helper/ExcelTemplates/TrueSouth/monthly-template.xlsx
+++ b/InvoiceGenerator.TS/Helper/ExcelTemplates/TrueSouth/monthly-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contracting\tdc-invoice-generator\InvoiceGenerator.TS\Helper\ExcelTemplates\TrueSouth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A13772-4B61-415C-82B5-5F43884DD0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708988F5-BBDA-4DBC-8E76-E3F173F85006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>UNIT SIZE</t>
   </si>
   <si>
-    <t>TOTAL KG</t>
-  </si>
-  <si>
     <t>TOTAL PALLETS</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>TRANSPORTER PO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
       <c r="D1" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
@@ -984,10 +984,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>17</v>
@@ -999,13 +999,13 @@
         <v>19</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
